--- a/ML course/Week 2/machine-learning-ex1/ex1/ex1data1.xlsx
+++ b/ML course/Week 2/machine-learning-ex1/ex1/ex1data1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="ex1data1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -25,10 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,11 +784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-290105648"/>
-        <c:axId val="-290107968"/>
+        <c:axId val="1462839840"/>
+        <c:axId val="1460892160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-290105648"/>
+        <c:axId val="1462839840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,12 +900,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-290107968"/>
+        <c:crossAx val="1460892160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-290107968"/>
+        <c:axId val="1460892160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-290105648"/>
+        <c:crossAx val="1462839840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
